--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111526007</v>
+        <v>111525999</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>86223</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538522.0815204142</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R2" t="n">
-        <v>7024306.075093818</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,18 +768,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -810,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525963</v>
+        <v>111525965</v>
       </c>
       <c r="B3" t="n">
-        <v>85062</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>249278</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -850,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538537.1937094387</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R3" t="n">
-        <v>7024283.354085779</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -926,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525965</v>
+        <v>111525963</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>85062</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>249278</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538536.3052666293</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R4" t="n">
-        <v>7024282.445275509</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525999</v>
+        <v>111526007</v>
       </c>
       <c r="B5" t="n">
-        <v>86223</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,38 +1040,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4412</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538398.3112996884</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R5" t="n">
-        <v>7024277.647416403</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,12 +1124,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525999</v>
+        <v>111525963</v>
       </c>
       <c r="B2" t="n">
-        <v>86223</v>
+        <v>85062</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4412</v>
+        <v>249278</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538398.3112996884</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R2" t="n">
-        <v>7024277.647416403</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525965</v>
+        <v>111526007</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538536.3052666293</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R3" t="n">
-        <v>7024282.445275509</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,12 +892,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525963</v>
+        <v>111525965</v>
       </c>
       <c r="B4" t="n">
-        <v>85062</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +938,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249278</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538537.1937094387</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R4" t="n">
-        <v>7024283.354085779</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111526007</v>
+        <v>111525999</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>86223</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,46 +1054,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538522.0815204142</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R5" t="n">
-        <v>7024306.075093818</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,18 +1130,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525963</v>
+        <v>111526007</v>
       </c>
       <c r="B2" t="n">
-        <v>85062</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>249278</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538537.1937094387</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R2" t="n">
-        <v>7024283.354085779</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -768,12 +776,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +810,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111526007</v>
+        <v>111525958</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>82949</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,46 +822,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>5589</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538522.0815204142</v>
+        <v>538520.7165163768</v>
       </c>
       <c r="R3" t="n">
-        <v>7024306.075093818</v>
+        <v>7024307.405905476</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,18 +898,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525958</v>
+        <v>111525963</v>
       </c>
       <c r="B6" t="n">
-        <v>82949</v>
+        <v>85062</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,21 +1174,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5589</v>
+        <v>249278</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538520.7165163768</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R6" t="n">
-        <v>7024307.405905476</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111526007</v>
+        <v>111525965</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538522.0815204142</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R2" t="n">
-        <v>7024306.075093818</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,18 +768,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -810,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525958</v>
+        <v>111525999</v>
       </c>
       <c r="B3" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -826,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -850,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538520.7165163768</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R3" t="n">
-        <v>7024307.405905476</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -926,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525965</v>
+        <v>111525958</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>82949</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>5589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538536.3052666293</v>
+        <v>538520.7165163768</v>
       </c>
       <c r="R4" t="n">
-        <v>7024282.445275509</v>
+        <v>7024307.405905476</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525999</v>
+        <v>111525963</v>
       </c>
       <c r="B5" t="n">
-        <v>86223</v>
+        <v>85062</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4412</v>
+        <v>249278</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1082,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538398.3112996884</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R5" t="n">
-        <v>7024277.647416403</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1158,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525963</v>
+        <v>111526007</v>
       </c>
       <c r="B6" t="n">
-        <v>85062</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,38 +1156,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>249278</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538537.1937094387</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R6" t="n">
-        <v>7024283.354085779</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,12 +1240,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525965</v>
+        <v>111525999</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538536.3052666293</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R2" t="n">
-        <v>7024282.445275509</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525999</v>
+        <v>111526007</v>
       </c>
       <c r="B3" t="n">
-        <v>86223</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4412</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538398.3112996884</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R3" t="n">
-        <v>7024277.647416403</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,12 +892,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1144,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111526007</v>
+        <v>111525965</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,46 +1170,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538522.0815204142</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R6" t="n">
-        <v>7024306.075093818</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,18 +1246,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525999</v>
+        <v>111525965</v>
       </c>
       <c r="B2" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538398.3112996884</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R2" t="n">
-        <v>7024277.647416403</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111526007</v>
+        <v>111525999</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>86223</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,46 +808,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538522.0815204142</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R3" t="n">
-        <v>7024306.075093818</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,18 +884,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -926,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525958</v>
+        <v>111525963</v>
       </c>
       <c r="B4" t="n">
-        <v>82949</v>
+        <v>85062</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5589</v>
+        <v>249278</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -966,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538520.7165163768</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R4" t="n">
-        <v>7024307.405905476</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525963</v>
+        <v>111525958</v>
       </c>
       <c r="B5" t="n">
-        <v>85062</v>
+        <v>82949</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>249278</v>
+        <v>5589</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1082,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538537.1937094387</v>
+        <v>538520.7165163768</v>
       </c>
       <c r="R5" t="n">
-        <v>7024283.354085779</v>
+        <v>7024307.405905476</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1158,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525965</v>
+        <v>111526007</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,38 +1156,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538536.3052666293</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R6" t="n">
-        <v>7024282.445275509</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,12 +1240,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525965</v>
+        <v>111525963</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>85062</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>249278</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538536.3052666293</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R2" t="n">
-        <v>7024282.445275509</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525999</v>
+        <v>111525965</v>
       </c>
       <c r="B3" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>538398.3112996884</v>
+        <v>538536.3052666293</v>
       </c>
       <c r="R3" t="n">
-        <v>7024277.647416403</v>
+        <v>7024282.445275509</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525963</v>
+        <v>111526007</v>
       </c>
       <c r="B4" t="n">
-        <v>85062</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,38 +924,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249278</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538537.1937094387</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R4" t="n">
-        <v>7024283.354085779</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1000,12 +1008,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1144,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111526007</v>
+        <v>111525999</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>86223</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,46 +1170,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>4412</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>538522.0815204142</v>
+        <v>538398.3112996884</v>
       </c>
       <c r="R6" t="n">
-        <v>7024306.075093818</v>
+        <v>7024277.647416403</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,18 +1246,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 27779-2023.xlsx
+++ b/artfynd/A 27779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525963</v>
+        <v>111526007</v>
       </c>
       <c r="B2" t="n">
-        <v>85062</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>249278</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>538537.1937094387</v>
+        <v>538522.0815204142</v>
       </c>
       <c r="R2" t="n">
-        <v>7024283.354085779</v>
+        <v>7024306.075093818</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -768,12 +776,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Blommande</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -912,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111526007</v>
+        <v>111525958</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>82949</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,46 +938,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>5589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Lillbergenskogarna, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>538522.0815204142</v>
+        <v>538520.7165163768</v>
       </c>
       <c r="R4" t="n">
-        <v>7024306.075093818</v>
+        <v>7024307.405905476</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,18 +1014,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Blommande</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525958</v>
+        <v>111525963</v>
       </c>
       <c r="B5" t="n">
-        <v>82949</v>
+        <v>85062</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,21 +1058,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5589</v>
+        <v>249278</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>538520.7165163768</v>
+        <v>538537.1937094387</v>
       </c>
       <c r="R5" t="n">
-        <v>7024307.405905476</v>
+        <v>7024283.354085779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
